--- a/Tabellen/Residuen_Analyse_west_Model_III.xlsx
+++ b/Tabellen/Residuen_Analyse_west_Model_III.xlsx
@@ -527,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0493105058307292</v>
+        <v>-0.0493105058284558</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.012975544713446</v>
+        <v>-0.0129755447114356</v>
       </c>
     </row>
     <row r="4">
@@ -543,7 +543,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00149287327843112</v>
+        <v>-0.00149287328166724</v>
       </c>
     </row>
     <row r="5">
@@ -551,7 +551,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0000391584882397928</v>
+        <v>-0.0000391584882464582</v>
       </c>
     </row>
     <row r="6">
@@ -559,7 +559,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0139117508135686</v>
+        <v>0.0139117508146594</v>
       </c>
     </row>
     <row r="7">
@@ -567,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0580175431843815</v>
+        <v>0.0580175431872534</v>
       </c>
     </row>
   </sheetData>
